--- a/data/2015/RP2 - APT_ATC_PRE_2015.xlsx
+++ b/data/2015/RP2 - APT_ATC_PRE_2015.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="417">
   <si>
     <t>Data source</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Period: JAN-DEC</t>
   </si>
   <si>
+    <t>Change date</t>
+  </si>
+  <si>
     <t>Source: Airports</t>
   </si>
   <si>
@@ -84,12 +87,15 @@
     <t>Croatia</t>
   </si>
   <si>
+    <t>0 of 1</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
     <t>0 of 2</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
     <t>Czech Republic</t>
   </si>
   <si>
@@ -102,19 +108,22 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>1 of 2</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
-    <t>4 of 60</t>
+    <t>2 of 60</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>11 of 16</t>
+    <t>4 of 16</t>
   </si>
   <si>
     <t>Greece</t>
@@ -138,6 +147,9 @@
     <t>Latvia</t>
   </si>
   <si>
+    <t>0 of 3</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -150,9 +162,21 @@
     <t>Malta</t>
   </si>
   <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Data revisions based on further validations and additional data received</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -162,13 +186,13 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>1 of 14</t>
+    <t>1 of 15</t>
   </si>
   <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>0 of 9</t>
+    <t>0 of 10</t>
   </si>
   <si>
     <t>Romania</t>
@@ -177,9 +201,6 @@
     <t>Slovakia</t>
   </si>
   <si>
-    <t>0 of 1</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
@@ -201,7 +222,7 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>8 of 9</t>
+    <t>5 of 9</t>
   </si>
   <si>
     <t>State</t>
@@ -678,91 +699,91 @@
     <t>LEPA</t>
   </si>
   <si>
-    <t>Albert Bray</t>
+    <t>Albert-Bray</t>
   </si>
   <si>
     <t>LFAQ</t>
   </si>
   <si>
-    <t>Agen</t>
+    <t>Agen-La Garenne</t>
   </si>
   <si>
     <t>LFBA</t>
   </si>
   <si>
-    <t>Bordeaux/ Mérignac</t>
+    <t>Bordeaux-Mérignac</t>
   </si>
   <si>
     <t>LFBD</t>
   </si>
   <si>
-    <t>Bergerac</t>
+    <t>Bergerac-Roumanière</t>
   </si>
   <si>
     <t>LFBE</t>
   </si>
   <si>
-    <t>La Rochelle</t>
+    <t>La Rochelle-Ile de Ré</t>
   </si>
   <si>
     <t>LFBH</t>
   </si>
   <si>
-    <t>Poitiers</t>
+    <t>Poitiers-Biard</t>
   </si>
   <si>
     <t>LFBI</t>
   </si>
   <si>
-    <t>Limoges</t>
+    <t>Limoges-Bellegarde</t>
   </si>
   <si>
     <t>LFBL</t>
   </si>
   <si>
-    <t>Toulouse</t>
+    <t>Toulouse-Blagnac</t>
   </si>
   <si>
     <t>LFBO</t>
   </si>
   <si>
-    <t>Pau Pyrénées</t>
+    <t>Pau-Pyrénées</t>
   </si>
   <si>
     <t>LFBP</t>
   </si>
   <si>
-    <t>Tarbes-Lourdes</t>
+    <t>Tarbes-Lourdes Pyrénées</t>
   </si>
   <si>
     <t>LFBT</t>
   </si>
   <si>
-    <t>Biarritz-Bayonne</t>
+    <t>Biarritz-Bayonne-Anglet</t>
   </si>
   <si>
     <t>LFBZ</t>
   </si>
   <si>
-    <t>Rodez-Aveyron</t>
+    <t>Rodez-Marcillac</t>
   </si>
   <si>
     <t>LFCR</t>
   </si>
   <si>
-    <t>Dole</t>
+    <t>Dôle-Tavaux</t>
   </si>
   <si>
     <t>LFGJ</t>
   </si>
   <si>
-    <t>Metz-Nancy</t>
+    <t>Metz-Nancy-Lorraine</t>
   </si>
   <si>
     <t>LFJL</t>
   </si>
   <si>
-    <t>Angers-Marse</t>
+    <t>Angers-Marcé</t>
   </si>
   <si>
     <t>LFJR</t>
@@ -774,121 +795,121 @@
     <t>LFKB</t>
   </si>
   <si>
-    <t>Calvi</t>
+    <t>Calvi-Sainte-Catherine</t>
   </si>
   <si>
     <t>LFKC</t>
   </si>
   <si>
-    <t>Figari</t>
+    <t>Figari-Sud Corse</t>
   </si>
   <si>
     <t>LFKF</t>
   </si>
   <si>
-    <t>Ajaccio</t>
+    <t>Ajaccio-Napoléon-Bonaparte</t>
   </si>
   <si>
     <t>LFKJ</t>
   </si>
   <si>
-    <t>Chambéry</t>
+    <t>Chambéry-Aix-les-Bains</t>
   </si>
   <si>
     <t>LFLB</t>
   </si>
   <si>
-    <t>Clermont Ferrand</t>
+    <t>Clermont-Ferrand-Auvergne</t>
   </si>
   <si>
     <t>LFLC</t>
   </si>
   <si>
-    <t>Lyon</t>
+    <t>Lyon-Saint-Exupéry</t>
   </si>
   <si>
     <t>LFLL</t>
   </si>
   <si>
-    <t>Annecy</t>
+    <t>Annecy-Meythet</t>
   </si>
   <si>
     <t>LFLP</t>
   </si>
   <si>
-    <t>Grenoble</t>
+    <t>Grenoble-Isère</t>
   </si>
   <si>
     <t>LFLS</t>
   </si>
   <si>
-    <t>Châteauroux</t>
+    <t>Châteauroux-Déols</t>
   </si>
   <si>
     <t>LFLX</t>
   </si>
   <si>
-    <t>Lyon/ Bron</t>
+    <t>Lyon-Bron</t>
   </si>
   <si>
     <t>LFLY</t>
   </si>
   <si>
-    <t>Cannes</t>
+    <t>Cannes-Mandelieu</t>
   </si>
   <si>
     <t>LFMD</t>
   </si>
   <si>
-    <t>Saint-Étienne</t>
+    <t>Saint-Etienne-Bouthéon</t>
   </si>
   <si>
     <t>LFMH</t>
   </si>
   <si>
-    <t>Istres-Le Tubé Air Base</t>
+    <t>Istres-Le Tubé</t>
   </si>
   <si>
     <t>LFMI</t>
   </si>
   <si>
-    <t>Carcassonne</t>
+    <t>Carcassonne-Salvaza</t>
   </si>
   <si>
     <t>LFMK</t>
   </si>
   <si>
-    <t>Marseille</t>
+    <t>Marseille-Provence</t>
   </si>
   <si>
     <t>LFML</t>
   </si>
   <si>
-    <t>Nice</t>
+    <t>Nice-Côte d’Azur</t>
   </si>
   <si>
     <t>LFMN</t>
   </si>
   <si>
-    <t>Perpignan</t>
+    <t>Perpignan-Rivesaltes</t>
   </si>
   <si>
     <t>LFMP</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Montpellier-Méditerranée</t>
   </si>
   <si>
     <t>LFMT</t>
   </si>
   <si>
-    <t>Béziers</t>
+    <t>Béziers-Vias</t>
   </si>
   <si>
     <t>LFMU</t>
   </si>
   <si>
-    <t>Avignon</t>
+    <t>Avignon-Caumont</t>
   </si>
   <si>
     <t>LFMV</t>
@@ -900,85 +921,85 @@
     <t>LFOB</t>
   </si>
   <si>
-    <t>Le Havre</t>
+    <t>Le Havre-Octeville</t>
   </si>
   <si>
     <t>LFOH</t>
   </si>
   <si>
-    <t>Châlons</t>
+    <t>Châlons-Vatry</t>
   </si>
   <si>
     <t>LFOK</t>
   </si>
   <si>
-    <t>Tours Val de Loire</t>
+    <t>Tours-Val de Loire</t>
   </si>
   <si>
     <t>LFOT</t>
   </si>
   <si>
-    <t>Paris/ Le Bourget</t>
+    <t>Paris-Le Bourget</t>
   </si>
   <si>
     <t>LFPB</t>
   </si>
   <si>
-    <t>Paris/ Charles de Gaulle</t>
+    <t>Paris-Charles-de-Gaulle</t>
   </si>
   <si>
     <t>LFPG</t>
   </si>
   <si>
-    <t>Toussus Le Noble</t>
+    <t>Toussus-le-Noble</t>
   </si>
   <si>
     <t>LFPN</t>
   </si>
   <si>
-    <t>Paris/ Orly</t>
+    <t>Paris-Orly</t>
   </si>
   <si>
     <t>LFPO</t>
   </si>
   <si>
-    <t>Lille</t>
+    <t>Lille-Lesquin</t>
   </si>
   <si>
     <t>LFQQ</t>
   </si>
   <si>
-    <t>Brest</t>
+    <t>Brest-Bretagne</t>
   </si>
   <si>
     <t>LFRB</t>
   </si>
   <si>
-    <t>Saint Malo</t>
+    <t>Dinard-Pleurtuit-Saint-Malo</t>
   </si>
   <si>
     <t>LFRD</t>
   </si>
   <si>
-    <t>Deauville</t>
+    <t>Deauville-Normandie</t>
   </si>
   <si>
     <t>LFRG</t>
   </si>
   <si>
-    <t>Lorient South Brittany</t>
+    <t>Lorient-Lann Bihoué</t>
   </si>
   <si>
     <t>LFRH</t>
   </si>
   <si>
-    <t>Caen</t>
+    <t>Caen-Carpiquet</t>
   </si>
   <si>
     <t>LFRK</t>
   </si>
   <si>
-    <t>Rennes</t>
+    <t>Rennes-Saint-Jacques</t>
   </si>
   <si>
     <t>LFRN</t>
@@ -990,49 +1011,49 @@
     <t>LFRO</t>
   </si>
   <si>
-    <t>Quimper</t>
+    <t>Quimper-Pluguffan</t>
   </si>
   <si>
     <t>LFRQ</t>
   </si>
   <si>
-    <t>Nantes</t>
+    <t>Nantes-Atlantique</t>
   </si>
   <si>
     <t>LFRS</t>
   </si>
   <si>
-    <t>Saint Nazaire</t>
+    <t>Saint-Nazaire-Montoir</t>
   </si>
   <si>
     <t>LFRZ</t>
   </si>
   <si>
-    <t>Basel-Mulhouse</t>
+    <t>Bâle-Mulhouse</t>
   </si>
   <si>
     <t>LFSB</t>
   </si>
   <si>
-    <t>Toul Rosieres</t>
+    <t>Brive-Souillac</t>
   </si>
   <si>
     <t>LFSL</t>
   </si>
   <si>
-    <t>Strasbourg</t>
+    <t>Strasbourg-Entzheim</t>
   </si>
   <si>
     <t>LFST</t>
   </si>
   <si>
-    <t>Toulon-Hyères</t>
+    <t>Hyères-Le Palyvestre</t>
   </si>
   <si>
     <t>LFTH</t>
   </si>
   <si>
-    <t>Nimes</t>
+    <t>Nîmes-Garons</t>
   </si>
   <si>
     <t>LFTW</t>
@@ -1243,15 +1264,6 @@
   </si>
   <si>
     <t>LZIB</t>
-  </si>
-  <si>
-    <t>Change date</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -1260,9 +1272,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="d/mmm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1312,6 +1324,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1342,20 +1359,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
+    <border/>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <right/>
       <top/>
       <bottom/>
@@ -1364,6 +1387,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1398,103 +1434,118 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1503,20 +1554,23 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>42425.0</v>
+        <v>42956.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1583,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -1592,25 +1646,25 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="22" t="e">
         <v>#N/A</v>
@@ -1622,13 +1676,13 @@
         <v>#N/A</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="17"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="22" t="e">
         <v>#N/A</v>
@@ -1640,13 +1694,13 @@
         <v>#N/A</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="17"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="22">
         <v>0.043</v>
@@ -1658,13 +1712,13 @@
         <v>921.0</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="17"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="22" t="e">
         <v>#N/A</v>
@@ -1676,13 +1730,13 @@
         <v>#N/A</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="22" t="e">
         <v>#N/A</v>
@@ -1694,13 +1748,13 @@
         <v>#N/A</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="22" t="e">
         <v>#N/A</v>
@@ -1712,13 +1766,13 @@
         <v>#N/A</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="22">
         <v>0.028</v>
@@ -1730,13 +1784,13 @@
         <v>3616.0</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="22" t="e">
         <v>#N/A</v>
@@ -1748,13 +1802,13 @@
         <v>#N/A</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="22">
         <v>0.15</v>
@@ -1766,13 +1820,13 @@
         <v>12910.0</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="17"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="22" t="e">
         <v>#N/A</v>
@@ -1784,13 +1838,13 @@
         <v>#N/A</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="22" t="e">
         <v>#N/A</v>
@@ -1802,31 +1856,31 @@
         <v>#N/A</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="22">
         <v>0.54</v>
       </c>
       <c r="C17" s="23">
-        <v>84977.0</v>
+        <v>84976.0</v>
       </c>
       <c r="D17" s="23">
         <v>45924.0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" s="22">
         <v>0.128</v>
@@ -1838,13 +1892,13 @@
         <v>5382.0</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="17"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="22" t="e">
         <v>#N/A</v>
@@ -1856,13 +1910,13 @@
         <v>#N/A</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" s="22" t="e">
         <v>#N/A</v>
@@ -1874,13 +1928,13 @@
         <v>#N/A</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21" s="22" t="e">
         <v>#N/A</v>
@@ -1892,13 +1946,13 @@
         <v>#N/A</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B22" s="22" t="e">
         <v>#N/A</v>
@@ -1910,13 +1964,13 @@
         <v>#N/A</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B23" s="22">
         <v>0.017</v>
@@ -1928,13 +1982,13 @@
         <v>502.0</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="17"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B24" s="22">
         <v>0.078</v>
@@ -1946,13 +2000,13 @@
         <v>1665.0</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="17"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B25" s="22" t="e">
         <v>#N/A</v>
@@ -1964,13 +2018,13 @@
         <v>#N/A</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B26" s="22">
         <v>0.037</v>
@@ -1982,13 +2036,13 @@
         <v>8560.0</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F26" s="17"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B27" s="22" t="e">
         <v>#N/A</v>
@@ -2000,13 +2054,13 @@
         <v>#N/A</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F27" s="17"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B28" s="22" t="e">
         <v>#N/A</v>
@@ -2018,13 +2072,13 @@
         <v>#N/A</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F28" s="17"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B29" s="22" t="e">
         <v>#N/A</v>
@@ -2036,13 +2090,13 @@
         <v>#N/A</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F29" s="17"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B30" s="22" t="e">
         <v>#N/A</v>
@@ -2054,13 +2108,13 @@
         <v>#N/A</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F30" s="17"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B31" s="22" t="e">
         <v>#N/A</v>
@@ -2072,49 +2126,49 @@
         <v>#N/A</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F31" s="17"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B32" s="22">
         <v>0.406</v>
       </c>
       <c r="C32" s="23">
-        <v>590022.0</v>
+        <v>514931.0</v>
       </c>
       <c r="D32" s="23">
-        <v>239635.0</v>
+        <v>236371.0</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F32" s="17"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B33" s="22">
         <v>0.041</v>
       </c>
       <c r="C33" s="23">
-        <v>111113.0</v>
+        <v>111112.0</v>
       </c>
       <c r="D33" s="23">
         <v>4527.0</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="17"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B34" s="22">
         <v>1.234</v>
@@ -2126,13 +2180,13 @@
         <v>270936.0</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F34" s="17"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="25" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B35" s="22" t="e">
         <v>#N/A</v>
@@ -2144,7 +2198,7 @@
         <v>#N/A</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F35" s="17"/>
     </row>
@@ -2158,6 +2212,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2195,8 +2252,8 @@
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26">
-        <v>42425.0</v>
+      <c r="B2" s="8">
+        <v>42956.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2224,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -2233,35 +2290,36 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="22" t="e">
+      <c r="A6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f t="shared" ref="D6:D179" si="1">round(F6/E6,3)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" s="23">
@@ -2272,16 +2330,17 @@
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>69</v>
+      <c r="A7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="22">
+        <f t="shared" si="1"/>
         <v>0.657</v>
       </c>
       <c r="E7" s="23">
@@ -2292,16 +2351,17 @@
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>71</v>
+      <c r="A8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="22">
+        <f t="shared" si="1"/>
         <v>0.072</v>
       </c>
       <c r="E8" s="23">
@@ -2312,16 +2372,17 @@
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="22" t="e">
+      <c r="A9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E9" s="23" t="e">
@@ -2332,16 +2393,17 @@
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="22" t="e">
+      <c r="A10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E10" s="23" t="e">
@@ -2352,36 +2414,38 @@
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>37087.0</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0.0</v>
+      <c r="A11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="22" t="e">
+      <c r="A12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E12" s="23" t="e">
@@ -2392,16 +2456,17 @@
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="22" t="e">
+      <c r="A13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E13" s="23" t="e">
@@ -2412,36 +2477,38 @@
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0.098</v>
-      </c>
-      <c r="E14" s="23">
-        <v>234015.0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>22973.0</v>
+      <c r="A14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="22" t="e">
+      <c r="A15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E15" s="23" t="e">
@@ -2452,76 +2519,80 @@
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0.195</v>
-      </c>
-      <c r="E16" s="23">
-        <v>73731.0</v>
-      </c>
-      <c r="F16" s="23">
-        <v>14398.0</v>
+      <c r="A16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="23">
-        <v>63486.0</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0.0</v>
+      <c r="A17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="23">
-        <v>104604.0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0.0</v>
+      <c r="A18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="22" t="e">
+      <c r="A19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E19" s="23" t="e">
@@ -2532,16 +2603,17 @@
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>95</v>
+      <c r="A20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D20" s="22">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E20" s="23">
@@ -2552,16 +2624,17 @@
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>97</v>
+      <c r="A21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="D21" s="22">
+        <f t="shared" si="1"/>
         <v>0.198</v>
       </c>
       <c r="E21" s="23">
@@ -2572,16 +2645,17 @@
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="22" t="e">
+      <c r="A22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E22" s="23" t="e">
@@ -2592,56 +2666,59 @@
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="23">
-        <v>63835.0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0.0</v>
+      <c r="A23" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="23">
-        <v>92252.0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0.0</v>
+      <c r="A24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>105</v>
+      <c r="A25" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="D25" s="22">
+        <f t="shared" si="1"/>
         <v>0.092</v>
       </c>
       <c r="E25" s="23">
@@ -2652,16 +2729,17 @@
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>107</v>
+      <c r="A26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="D26" s="22">
+        <f t="shared" si="1"/>
         <v>0.021</v>
       </c>
       <c r="E26" s="23">
@@ -2672,36 +2750,38 @@
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F27" s="23" t="e">
-        <v>#N/A</v>
+      <c r="A27" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="22">
+        <f t="shared" si="1"/>
+        <v>0.006</v>
+      </c>
+      <c r="E27" s="23">
+        <v>14556.0</v>
+      </c>
+      <c r="F27" s="23">
+        <v>90.0</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="22" t="e">
+      <c r="A28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E28" s="23" t="e">
@@ -2712,16 +2792,17 @@
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>113</v>
+      <c r="A29" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="D29" s="22">
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="E29" s="23">
@@ -2732,16 +2813,17 @@
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>115</v>
+      <c r="A30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="D30" s="22">
+        <f t="shared" si="1"/>
         <v>0.192</v>
       </c>
       <c r="E30" s="23">
@@ -2752,16 +2834,17 @@
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>117</v>
+      <c r="A31" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="D31" s="22">
+        <f t="shared" si="1"/>
         <v>0.692</v>
       </c>
       <c r="E31" s="23">
@@ -2772,36 +2855,38 @@
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="23">
-        <v>58244.0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0.0</v>
+      <c r="A32" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>121</v>
+      <c r="A33" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="D33" s="22">
+        <f t="shared" si="1"/>
         <v>0.737</v>
       </c>
       <c r="E33" s="23">
@@ -2812,56 +2897,59 @@
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="23">
-        <v>42394.0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0.0</v>
+      <c r="A34" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="22">
-        <v>0.177</v>
-      </c>
-      <c r="E35" s="23">
-        <v>235833.0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>41695.0</v>
+      <c r="A35" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="22" t="e">
+      <c r="A36" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E36" s="23" t="e">
@@ -2872,16 +2960,17 @@
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>129</v>
+      <c r="A37" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="D37" s="22">
+        <f t="shared" si="1"/>
         <v>0.195</v>
       </c>
       <c r="E37" s="23">
@@ -2892,16 +2981,17 @@
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>131</v>
+      <c r="A38" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="D38" s="22">
+        <f t="shared" si="1"/>
         <v>0.557</v>
       </c>
       <c r="E38" s="23">
@@ -2912,36 +3002,38 @@
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="23">
-        <v>230748.0</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0.0</v>
+      <c r="A39" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="22" t="e">
+      <c r="A40" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E40" s="23" t="e">
@@ -2952,16 +3044,17 @@
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="22" t="e">
+      <c r="A41" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E41" s="23" t="e">
@@ -2972,16 +3065,17 @@
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="22" t="e">
+      <c r="A42" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E42" s="23" t="e">
@@ -2992,16 +3086,17 @@
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="22" t="e">
+      <c r="A43" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E43" s="23" t="e">
@@ -3012,16 +3107,17 @@
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>143</v>
+      <c r="A44" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="D44" s="22">
+        <f t="shared" si="1"/>
         <v>0.534</v>
       </c>
       <c r="E44" s="23">
@@ -3032,16 +3128,17 @@
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="22" t="e">
+      <c r="A45" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E45" s="23" t="e">
@@ -3052,16 +3149,17 @@
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>147</v>
+      <c r="A46" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="D46" s="22">
+        <f t="shared" si="1"/>
         <v>0.028</v>
       </c>
       <c r="E46" s="23">
@@ -3072,16 +3170,17 @@
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>148</v>
+      <c r="A47" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="D47" s="22">
+        <f t="shared" si="1"/>
         <v>0.017</v>
       </c>
       <c r="E47" s="23">
@@ -3092,16 +3191,17 @@
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>150</v>
+      <c r="A48" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="D48" s="22">
+        <f t="shared" si="1"/>
         <v>0.006</v>
       </c>
       <c r="E48" s="23">
@@ -3112,16 +3212,17 @@
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>152</v>
+      <c r="A49" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="D49" s="22">
+        <f t="shared" si="1"/>
         <v>0.064</v>
       </c>
       <c r="E49" s="23">
@@ -3132,16 +3233,17 @@
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>154</v>
+      <c r="A50" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="D50" s="22">
+        <f t="shared" si="1"/>
         <v>0.001</v>
       </c>
       <c r="E50" s="23">
@@ -3152,16 +3254,17 @@
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>156</v>
+      <c r="A51" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="D51" s="22">
+        <f t="shared" si="1"/>
         <v>0.012</v>
       </c>
       <c r="E51" s="23">
@@ -3172,16 +3275,17 @@
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="22" t="e">
+      <c r="A52" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E52" s="23" t="e">
@@ -3192,16 +3296,17 @@
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="22" t="e">
+      <c r="A53" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E53" s="23" t="e">
@@ -3212,16 +3317,17 @@
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="22" t="e">
+      <c r="A54" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E54" s="23" t="e">
@@ -3232,16 +3338,17 @@
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="22" t="e">
+      <c r="A55" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E55" s="23" t="e">
@@ -3252,16 +3359,17 @@
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="22" t="e">
+      <c r="A56" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E56" s="23" t="e">
@@ -3272,16 +3380,17 @@
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="22" t="e">
+      <c r="A57" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E57" s="23" t="e">
@@ -3292,16 +3401,17 @@
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="22" t="e">
+      <c r="A58" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E58" s="23" t="e">
@@ -3312,16 +3422,17 @@
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="22" t="e">
+      <c r="A59" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E59" s="23" t="e">
@@ -3332,16 +3443,17 @@
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="22" t="e">
+      <c r="A60" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E60" s="23" t="e">
@@ -3352,16 +3464,17 @@
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="22" t="e">
+      <c r="A61" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E61" s="23" t="e">
@@ -3372,16 +3485,17 @@
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="22" t="e">
+      <c r="A62" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E62" s="23" t="e">
@@ -3392,16 +3506,17 @@
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>180</v>
+      <c r="A63" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="D63" s="22">
+        <f t="shared" si="1"/>
         <v>0.263</v>
       </c>
       <c r="E63" s="23">
@@ -3412,16 +3527,17 @@
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="22" t="e">
+      <c r="A64" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E64" s="23" t="e">
@@ -3432,16 +3548,17 @@
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="22" t="e">
+      <c r="A65" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E65" s="23" t="e">
@@ -3452,16 +3569,17 @@
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>186</v>
+      <c r="A66" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="D66" s="22">
+        <f t="shared" si="1"/>
         <v>0.041</v>
       </c>
       <c r="E66" s="23">
@@ -3472,16 +3590,17 @@
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="22" t="e">
+      <c r="A67" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E67" s="23" t="e">
@@ -3492,36 +3611,38 @@
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="22">
-        <v>0.005</v>
-      </c>
-      <c r="E68" s="23">
-        <v>31205.0</v>
-      </c>
-      <c r="F68" s="23">
-        <v>165.0</v>
+      <c r="A68" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="22" t="e">
+      <c r="A69" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E69" s="23" t="e">
@@ -3532,16 +3653,17 @@
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="22" t="e">
+      <c r="A70" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E70" s="23" t="e">
@@ -3552,16 +3674,17 @@
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="22" t="e">
+      <c r="A71" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E71" s="23" t="e">
@@ -3572,16 +3695,17 @@
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" s="22" t="e">
+      <c r="A72" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E72" s="23" t="e">
@@ -3592,16 +3716,17 @@
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="22" t="e">
+      <c r="A73" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E73" s="23" t="e">
@@ -3612,16 +3737,17 @@
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>202</v>
+      <c r="A74" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="D74" s="22">
+        <f t="shared" si="1"/>
         <v>0.331</v>
       </c>
       <c r="E74" s="23">
@@ -3632,16 +3758,17 @@
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>204</v>
+      <c r="A75" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="D75" s="22">
+        <f t="shared" si="1"/>
         <v>0.043</v>
       </c>
       <c r="E75" s="23">
@@ -3652,16 +3779,17 @@
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="22" t="e">
+      <c r="A76" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E76" s="23" t="e">
@@ -3672,16 +3800,17 @@
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" s="22" t="e">
+      <c r="A77" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E77" s="23" t="e">
@@ -3692,16 +3821,17 @@
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" s="22" t="e">
+      <c r="A78" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E78" s="23" t="e">
@@ -3712,16 +3842,17 @@
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="22" t="e">
+      <c r="A79" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E79" s="23" t="e">
@@ -3732,16 +3863,17 @@
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>214</v>
+      <c r="A80" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>221</v>
       </c>
       <c r="D80" s="22">
+        <f t="shared" si="1"/>
         <v>0.502</v>
       </c>
       <c r="E80" s="23">
@@ -3752,16 +3884,17 @@
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>216</v>
+      <c r="A81" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>223</v>
       </c>
       <c r="D81" s="22">
+        <f t="shared" si="1"/>
         <v>0.612</v>
       </c>
       <c r="E81" s="23">
@@ -3772,16 +3905,17 @@
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>218</v>
+      <c r="A82" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>225</v>
       </c>
       <c r="D82" s="22">
+        <f t="shared" si="1"/>
         <v>0.322</v>
       </c>
       <c r="E82" s="23">
@@ -3792,16 +3926,17 @@
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>220</v>
+      <c r="A83" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>227</v>
       </c>
       <c r="D83" s="22">
+        <f t="shared" si="1"/>
         <v>0.225</v>
       </c>
       <c r="E83" s="23">
@@ -3812,16 +3947,17 @@
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="D84" s="22" t="e">
+      <c r="A84" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E84" s="23" t="e">
@@ -3832,16 +3968,17 @@
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="22" t="e">
+      <c r="A85" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E85" s="23" t="e">
@@ -3852,16 +3989,17 @@
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="22" t="e">
+      <c r="A86" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E86" s="23" t="e">
@@ -3872,16 +4010,17 @@
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D87" s="22" t="e">
+      <c r="A87" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E87" s="23" t="e">
@@ -3892,16 +4031,17 @@
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="D88" s="22" t="e">
+      <c r="A88" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E88" s="23" t="e">
@@ -3912,16 +4052,17 @@
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D89" s="22" t="e">
+      <c r="A89" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E89" s="23" t="e">
@@ -3932,16 +4073,17 @@
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D90" s="22" t="e">
+      <c r="A90" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E90" s="23" t="e">
@@ -3952,16 +4094,17 @@
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D91" s="22" t="e">
+      <c r="A91" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E91" s="23" t="e">
@@ -3972,16 +4115,17 @@
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="D92" s="22" t="e">
+      <c r="A92" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E92" s="23" t="e">
@@ -3992,16 +4136,17 @@
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D93" s="22" t="e">
+      <c r="A93" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E93" s="23" t="e">
@@ -4012,16 +4157,17 @@
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D94" s="22" t="e">
+      <c r="A94" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E94" s="23" t="e">
@@ -4032,16 +4178,17 @@
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D95" s="22" t="e">
+      <c r="A95" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E95" s="23" t="e">
@@ -4052,16 +4199,17 @@
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D96" s="22" t="e">
+      <c r="A96" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E96" s="23" t="e">
@@ -4072,16 +4220,17 @@
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" s="22" t="e">
+      <c r="A97" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E97" s="23" t="e">
@@ -4092,16 +4241,17 @@
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="D98" s="22" t="e">
+      <c r="A98" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E98" s="23" t="e">
@@ -4112,16 +4262,17 @@
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D99" s="22" t="e">
+      <c r="A99" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E99" s="23" t="e">
@@ -4132,16 +4283,17 @@
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="D100" s="22" t="e">
+      <c r="A100" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E100" s="23" t="e">
@@ -4152,16 +4304,17 @@
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101" s="22" t="e">
+      <c r="A101" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D101" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E101" s="23" t="e">
@@ -4172,16 +4325,17 @@
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D102" s="22" t="e">
+      <c r="A102" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D102" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E102" s="23" t="e">
@@ -4192,16 +4346,17 @@
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D103" s="22" t="e">
+      <c r="A103" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E103" s="23" t="e">
@@ -4212,16 +4367,17 @@
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="D104" s="22" t="e">
+      <c r="A104" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E104" s="23" t="e">
@@ -4232,16 +4388,17 @@
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>264</v>
+      <c r="A105" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>271</v>
       </c>
       <c r="D105" s="22">
+        <f t="shared" si="1"/>
         <v>0.116</v>
       </c>
       <c r="E105" s="23">
@@ -4252,16 +4409,17 @@
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D106" s="22" t="e">
+      <c r="A106" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D106" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E106" s="23" t="e">
@@ -4272,16 +4430,17 @@
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B107" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D107" s="22" t="e">
+      <c r="A107" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E107" s="23" t="e">
@@ -4292,16 +4451,17 @@
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="D108" s="22" t="e">
+      <c r="A108" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D108" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E108" s="23" t="e">
@@ -4312,16 +4472,17 @@
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D109" s="22" t="e">
+      <c r="A109" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D109" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E109" s="23" t="e">
@@ -4332,16 +4493,17 @@
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="D110" s="22" t="e">
+      <c r="A110" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="D110" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E110" s="23" t="e">
@@ -4352,16 +4514,17 @@
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="D111" s="22" t="e">
+      <c r="A111" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E111" s="23" t="e">
@@ -4372,16 +4535,17 @@
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="D112" s="22" t="e">
+      <c r="A112" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="D112" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E112" s="23" t="e">
@@ -4392,16 +4556,17 @@
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D113" s="22" t="e">
+      <c r="A113" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D113" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E113" s="23" t="e">
@@ -4412,16 +4577,17 @@
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="D114" s="22" t="e">
+      <c r="A114" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D114" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E114" s="23" t="e">
@@ -4432,16 +4598,17 @@
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B115" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="D115" s="22" t="e">
+      <c r="A115" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D115" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E115" s="23" t="e">
@@ -4452,16 +4619,17 @@
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D116" s="22" t="e">
+      <c r="A116" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E116" s="23" t="e">
@@ -4472,16 +4640,17 @@
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D117" s="22" t="e">
+      <c r="A117" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E117" s="23" t="e">
@@ -4492,16 +4661,17 @@
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="D118" s="22" t="e">
+      <c r="A118" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D118" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E118" s="23" t="e">
@@ -4512,16 +4682,17 @@
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D119" s="22" t="e">
+      <c r="A119" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D119" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E119" s="23" t="e">
@@ -4532,16 +4703,17 @@
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D120" s="22" t="e">
+      <c r="A120" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D120" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E120" s="23" t="e">
@@ -4552,16 +4724,17 @@
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D121" s="22" t="e">
+      <c r="A121" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D121" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E121" s="23" t="e">
@@ -4572,16 +4745,17 @@
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="D122" s="22" t="e">
+      <c r="A122" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D122" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E122" s="23" t="e">
@@ -4592,16 +4766,17 @@
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D123" s="22" t="e">
+      <c r="A123" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D123" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E123" s="23" t="e">
@@ -4612,16 +4787,17 @@
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B124" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="D124" s="22" t="e">
+      <c r="A124" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E124" s="23" t="e">
@@ -4632,16 +4808,17 @@
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B125" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>304</v>
+      <c r="A125" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>311</v>
       </c>
       <c r="D125" s="22">
+        <f t="shared" si="1"/>
         <v>0.397</v>
       </c>
       <c r="E125" s="23">
@@ -4652,16 +4829,17 @@
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B126" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="D126" s="22" t="e">
+      <c r="A126" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E126" s="23" t="e">
@@ -4672,36 +4850,38 @@
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="D127" s="22">
-        <v>0.205</v>
-      </c>
-      <c r="E127" s="23">
-        <v>117050.0</v>
-      </c>
-      <c r="F127" s="23">
-        <v>24032.0</v>
+      <c r="A127" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D127" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E127" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F127" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D128" s="22" t="e">
+      <c r="A128" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="D128" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E128" s="23" t="e">
@@ -4712,16 +4892,17 @@
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D129" s="22" t="e">
+      <c r="A129" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="D129" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E129" s="23" t="e">
@@ -4732,16 +4913,17 @@
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="D130" s="22" t="e">
+      <c r="A130" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D130" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E130" s="23" t="e">
@@ -4752,16 +4934,17 @@
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="D131" s="22" t="e">
+      <c r="A131" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E131" s="23" t="e">
@@ -4772,16 +4955,17 @@
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="D132" s="22" t="e">
+      <c r="A132" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="D132" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E132" s="23" t="e">
@@ -4792,16 +4976,17 @@
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="D133" s="22" t="e">
+      <c r="A133" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D133" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E133" s="23" t="e">
@@ -4812,16 +4997,17 @@
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="D134" s="22" t="e">
+      <c r="A134" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D134" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E134" s="23" t="e">
@@ -4832,16 +5018,17 @@
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D135" s="22" t="e">
+      <c r="A135" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="D135" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E135" s="23" t="e">
@@ -4852,16 +5039,17 @@
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="D136" s="22" t="e">
+      <c r="A136" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D136" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E136" s="23" t="e">
@@ -4872,16 +5060,17 @@
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="D137" s="22" t="e">
+      <c r="A137" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D137" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E137" s="23" t="e">
@@ -4892,16 +5081,17 @@
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="D138" s="22" t="e">
+      <c r="A138" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D138" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E138" s="23" t="e">
@@ -4912,36 +5102,38 @@
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="D139" s="22">
-        <v>0.111</v>
-      </c>
-      <c r="E139" s="23">
-        <v>37532.0</v>
-      </c>
-      <c r="F139" s="23">
-        <v>4182.0</v>
+      <c r="A139" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D139" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E139" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F139" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="D140" s="22" t="e">
+      <c r="A140" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D140" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E140" s="23" t="e">
@@ -4952,16 +5144,17 @@
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="D141" s="22" t="e">
+      <c r="A141" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D141" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E141" s="23" t="e">
@@ -4972,16 +5165,17 @@
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D142" s="22" t="e">
+      <c r="A142" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D142" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E142" s="23" t="e">
@@ -4992,16 +5186,17 @@
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="D143" s="22" t="e">
+      <c r="A143" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D143" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E143" s="23" t="e">
@@ -5012,16 +5207,17 @@
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>342</v>
+      <c r="A144" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="D144" s="22">
+        <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
       <c r="E144" s="23">
@@ -5032,16 +5228,17 @@
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B145" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>344</v>
+      <c r="A145" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="D145" s="22">
+        <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
       <c r="E145" s="23">
@@ -5052,16 +5249,17 @@
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="D146" s="22" t="e">
+      <c r="A146" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="D146" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E146" s="23" t="e">
@@ -5072,16 +5270,17 @@
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>348</v>
+      <c r="A147" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>355</v>
       </c>
       <c r="D147" s="22">
+        <f t="shared" si="1"/>
         <v>0.726</v>
       </c>
       <c r="E147" s="23">
@@ -5092,16 +5291,17 @@
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D148" s="22" t="e">
+      <c r="A148" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="D148" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E148" s="23" t="e">
@@ -5112,16 +5312,17 @@
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B149" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>352</v>
+      <c r="A149" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="D149" s="22">
+        <f t="shared" si="1"/>
         <v>1.572</v>
       </c>
       <c r="E149" s="23">
@@ -5132,16 +5333,17 @@
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C150" s="27" t="s">
-        <v>354</v>
+      <c r="A150" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="D150" s="22">
+        <f t="shared" si="1"/>
         <v>3.031</v>
       </c>
       <c r="E150" s="23">
@@ -5152,16 +5354,17 @@
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>356</v>
+      <c r="A151" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>363</v>
       </c>
       <c r="D151" s="22">
+        <f t="shared" si="1"/>
         <v>0.034</v>
       </c>
       <c r="E151" s="23">
@@ -5172,16 +5375,17 @@
       </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="D152" s="22" t="e">
+      <c r="A152" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B152" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E152" s="23" t="e">
@@ -5192,16 +5396,17 @@
       </c>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="D153" s="22" t="e">
+      <c r="A153" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B153" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D153" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E153" s="23" t="e">
@@ -5212,16 +5417,17 @@
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="D154" s="22" t="e">
+      <c r="A154" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="D154" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E154" s="23" t="e">
@@ -5232,16 +5438,17 @@
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="D155" s="22" t="e">
+      <c r="A155" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D155" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E155" s="23" t="e">
@@ -5252,16 +5459,17 @@
       </c>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>366</v>
+      <c r="A156" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>373</v>
       </c>
       <c r="D156" s="22">
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="E156" s="23">
@@ -5272,16 +5480,17 @@
       </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="D157" s="22" t="e">
+      <c r="A157" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="D157" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E157" s="23" t="e">
@@ -5292,16 +5501,17 @@
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>369</v>
+      <c r="A158" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>376</v>
       </c>
       <c r="D158" s="22">
+        <f t="shared" si="1"/>
         <v>0.078</v>
       </c>
       <c r="E158" s="23">
@@ -5312,16 +5522,17 @@
       </c>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="D159" s="22" t="e">
+      <c r="A159" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="D159" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E159" s="23" t="e">
@@ -5332,16 +5543,17 @@
       </c>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="D160" s="22" t="e">
+      <c r="A160" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D160" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E160" s="23" t="e">
@@ -5352,16 +5564,17 @@
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B161" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D161" s="22" t="e">
+      <c r="A161" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D161" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E161" s="23" t="e">
@@ -5372,16 +5585,17 @@
       </c>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="C162" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="D162" s="22" t="e">
+      <c r="A162" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E162" s="23" t="e">
@@ -5392,16 +5606,17 @@
       </c>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="C163" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D163" s="22" t="e">
+      <c r="A163" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D163" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E163" s="23" t="e">
@@ -5412,16 +5627,17 @@
       </c>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="C164" s="27" t="s">
-        <v>381</v>
+      <c r="A164" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>388</v>
       </c>
       <c r="D164" s="22">
+        <f t="shared" si="1"/>
         <v>0.999</v>
       </c>
       <c r="E164" s="23">
@@ -5432,16 +5648,17 @@
       </c>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C165" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="D165" s="22" t="e">
+      <c r="A165" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D165" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E165" s="23" t="e">
@@ -5452,16 +5669,17 @@
       </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="D166" s="22" t="e">
+      <c r="A166" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="D166" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E166" s="23" t="e">
@@ -5472,16 +5690,17 @@
       </c>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B167" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="D167" s="22" t="e">
+      <c r="A167" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B167" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D167" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E167" s="23" t="e">
@@ -5492,16 +5711,17 @@
       </c>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B168" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="D168" s="22" t="e">
+      <c r="A168" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D168" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E168" s="23" t="e">
@@ -5512,16 +5732,17 @@
       </c>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B169" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="C169" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="D169" s="22" t="e">
+      <c r="A169" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D169" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E169" s="23" t="e">
@@ -5532,16 +5753,17 @@
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="C170" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="D170" s="22" t="e">
+      <c r="A170" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B170" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D170" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E170" s="23" t="e">
@@ -5552,16 +5774,17 @@
       </c>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B171" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D171" s="22" t="e">
+      <c r="A171" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B171" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="D171" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E171" s="23" t="e">
@@ -5572,16 +5795,17 @@
       </c>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="C172" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="D172" s="22" t="e">
+      <c r="A172" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B172" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D172" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E172" s="23" t="e">
@@ -5592,16 +5816,17 @@
       </c>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B173" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="C173" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="D173" s="22" t="e">
+      <c r="A173" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="D173" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E173" s="23" t="e">
@@ -5612,16 +5837,17 @@
       </c>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B174" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D174" s="22" t="e">
+      <c r="A174" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B174" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="D174" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E174" s="23" t="e">
@@ -5632,16 +5858,17 @@
       </c>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B175" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="C175" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="D175" s="22" t="e">
+      <c r="A175" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B175" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="D175" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E175" s="23" t="e">
@@ -5652,16 +5879,17 @@
       </c>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B176" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="C176" s="27" t="s">
-        <v>405</v>
+      <c r="A176" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B176" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>412</v>
       </c>
       <c r="D176" s="22">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="E176" s="23">
@@ -5672,16 +5900,17 @@
       </c>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B177" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>407</v>
+      <c r="A177" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>414</v>
       </c>
       <c r="D177" s="22">
+        <f t="shared" si="1"/>
         <v>1.925</v>
       </c>
       <c r="E177" s="23">
@@ -5692,22 +5921,38 @@
       </c>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B178" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="C178" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="D178" s="22" t="e">
+      <c r="A178" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B178" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D178" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E178" s="23" t="e">
         <v>#N/A</v>
       </c>
       <c r="F178" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" ht="12.75" customHeight="1">
+      <c r="A179" s="35"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="35"/>
+      <c r="D179" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E179" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F179" s="36" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5721,6 +5966,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5733,132 +5981,140 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>412</v>
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="28">
+        <v>42956.0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="30">
+        <v>2015.0</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
